--- a/earlywarning-pom/earlywarning-config/src/baf-instances/20_Inst_User_Group_Right.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/20_Inst_User_Group_Right.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="69">
   <si>
     <t>User_Group_Right</t>
   </si>
@@ -369,6 +369,54 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9877425" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -645,7 +693,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,8 +897,8 @@
       <c r="G8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
-        <v>23</v>
+      <c r="H8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -979,8 +1027,8 @@
       <c r="G13" t="s">
         <v>34</v>
       </c>
-      <c r="H13" t="s">
-        <v>23</v>
+      <c r="H13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
